--- a/asset/Hierachical Table.xlsx
+++ b/asset/Hierachical Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\Tabular QA\工作内容\Table Transformation\Table-Transformation-demo\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AC2B78-5712-40BD-98E2-FF37B66DA2FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F87C15E-FFC7-4691-AA48-54B6977D1D3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="12045" windowHeight="4980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,9 +829,30 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,27 +864,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1237,30 +1237,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="9">
         <v>2018</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9">
         <v>2019</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9">
         <v>2020</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1299,682 +1299,682 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="3">
         <v>4.8</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="3">
         <v>4.7</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="3">
         <v>3.5</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>5.2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="3">
         <v>4.8</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="3">
         <v>3.5</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="3">
         <v>3.6</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="3">
         <v>3.8</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="4">
         <v>4.8</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>11.4</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>12.7</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="5">
         <v>11.3</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="5">
         <v>13.3</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="5">
         <v>11.4</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="5">
         <v>11.7</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="5">
         <v>11.8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="5">
         <v>11.2</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="5">
         <v>11.3</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="5">
         <v>10.8</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="6">
         <v>10.6</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="5">
         <v>27.4</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="5">
         <v>31</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="5">
         <v>25.2</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="5">
         <v>31.7</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="5">
         <v>21.9</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="5">
         <v>25.7</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="5">
         <v>28</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="5">
         <v>29.1</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="5">
         <v>26.5</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="5">
         <v>29.4</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="5">
         <v>25.9</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="6">
         <v>27.7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="7">
         <v>7.2</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="7">
         <v>9.1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="7">
         <v>8.6</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="7">
         <v>10.8</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="7">
         <v>11.3</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N6" s="8">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="3">
         <v>3.8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>5.2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>3.1</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="3">
         <v>2.6</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="3">
         <v>3.7</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="3">
         <v>4.8</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="3">
         <v>4</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="3">
         <v>2.8</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="3">
         <v>3.6</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <v>3.3</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="5">
         <v>11.9</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="5">
         <v>12</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="5">
         <v>10.8</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="5">
         <v>14.6</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="5">
         <v>10.8</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="5">
         <v>14.8</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="5">
         <v>12.9</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="5">
         <v>13.6</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="5">
         <v>10.8</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="5">
         <v>12.5</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="5">
         <v>11.5</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="6">
         <v>11.5</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="5">
         <v>27.8</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="5">
         <v>28.2</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="5">
         <v>24.6</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="5">
         <v>27.4</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="5">
         <v>25.4</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="5">
         <v>33.799999999999997</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="5">
         <v>30</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="5">
         <v>32.5</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="5">
         <v>25</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="5">
         <v>30.6</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="5">
         <v>27.7</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="6">
         <v>27.5</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>10.4</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="5">
         <v>7.7</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="5">
         <v>11.3</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="5">
         <v>10.1</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="5">
         <v>10.7</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="5">
         <v>10</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="5">
         <v>12.8</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="5">
         <v>11.9</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="5">
         <v>11.8</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="6">
         <v>12.8</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <v>3.5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="5">
         <v>2.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="5">
         <v>3</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="5">
         <v>3.2</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="5">
         <v>2.8</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="5">
         <v>3.6</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="5">
         <v>3.8</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="5">
         <v>3.5</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="6">
         <v>3.6</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>10.8</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="5">
         <v>7.6</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="5">
         <v>13.2</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="5">
         <v>10</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="5">
         <v>10.8</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="5">
         <v>12.3</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="5">
         <v>12</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="5">
         <v>12.2</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="5">
         <v>12.4</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="5">
         <v>11.5</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="6">
         <v>13.1</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <v>25</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="5">
         <v>19.600000000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="5">
         <v>17.5</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="5">
         <v>29.4</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="5">
         <v>23.7</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="5">
         <v>24.1</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="5">
         <v>28.8</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="5">
         <v>29.4</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="5">
         <v>28.2</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="5">
         <v>29.2</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="5">
         <v>26.9</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>10.3</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="5">
         <v>11.4</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="5">
         <v>11.5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="5">
         <v>14.1</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="5">
         <v>10.5</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="5">
         <v>12.4</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="5">
         <v>10</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="5">
         <v>8.4</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="5">
         <v>11.1</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="5">
         <v>10.9</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="5">
         <v>10.9</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="6">
         <v>11.9</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="5">
         <v>3.1</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="5">
         <v>2.5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="5">
         <v>3.3</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="5">
         <v>3.9</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="5">
         <v>3.1</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="5">
         <v>3.2</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="5">
         <v>3.4</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="5">
         <v>4.3</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="5">
         <v>2.7</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="5">
         <v>3.5</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="5">
         <v>3.8</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="6">
         <v>5.5</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>10.7</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="5">
         <v>9.9</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="5">
         <v>11.1</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="5">
         <v>13.3</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="5">
         <v>10.8</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="5">
         <v>11.9</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="5">
         <v>11.3</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="5">
         <v>15.1</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="5">
         <v>9.5</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="5">
         <v>12.3</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="5">
         <v>11.9</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="6">
         <v>13.5</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>24.1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="5">
         <v>21.7</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="5">
         <v>25.4</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="5">
         <v>29.5</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="5">
         <v>25.1</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="5">
         <v>27.1</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="5">
         <v>27.7</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="5">
         <v>35.4</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="5">
         <v>23</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="5">
         <v>28.8</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="5">
         <v>29.4</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="6">
         <v>33.299999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="5">
         <v>11.2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="5">
         <v>12.4</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="5">
         <v>11.2</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="5">
         <v>11.1</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="5">
         <v>11.6</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="5">
         <v>12.2</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="5">
         <v>11.6</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="5">
         <v>11.9</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="5">
         <v>12</v>
       </c>
-      <c r="L18" s="11">
+      <c r="L18" s="5">
         <v>11.8</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="5">
         <v>11</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="6">
         <v>8.5</v>
       </c>
     </row>
